--- a/df_2/df_2_11.xlsx
+++ b/df_2/df_2_11.xlsx
@@ -671,397 +671,397 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7381 %</t>
+          <t>0,7381</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9485 %</t>
+          <t>0,9485</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3673 %</t>
+          <t>1,3673</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.54 %</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.7927 %</t>
+          <t>1,7927</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6735 %</t>
+          <t>1,6735</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.673 %</t>
+          <t>1,673</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6195 %</t>
+          <t>1,6195</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.1995 %</t>
+          <t>2,1995</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.7841 %</t>
+          <t>1,7841</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.4116 %</t>
+          <t>1,4116</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.2915 %</t>
+          <t>1,2915</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.2761 %</t>
+          <t>1,2761</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.3166 %</t>
+          <t>1,3166</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.9099 %</t>
+          <t>0,9099</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.012 %</t>
+          <t>1,012</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.2673 %</t>
+          <t>1,2673</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.4657 %</t>
+          <t>1,4657</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.7043 %</t>
+          <t>1,7043</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.8125 %</t>
+          <t>1,8125</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.4945 %</t>
+          <t>1,4945</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.9484 %</t>
+          <t>1,9484</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.9877 %</t>
+          <t>1,9877</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.6089 %</t>
+          <t>1,6089</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.0986 %</t>
+          <t>1,0986</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.0996 %</t>
+          <t>1,0996</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.7776 %</t>
+          <t>0,7776</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7882 %</t>
+          <t>0,7882</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.4524 %</t>
+          <t>0,4524</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.7547 %</t>
+          <t>0,7547</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.7506 %</t>
+          <t>0,7506</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5344 %</t>
+          <t>0,5344</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.5558 %</t>
+          <t>0,5558</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.5925 %</t>
+          <t>0,5925</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.8037 %</t>
+          <t>0,8037</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5788 %</t>
+          <t>0,5788</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.492 %</t>
+          <t>0,492</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.6471 %</t>
+          <t>0,6471</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.3659 %</t>
+          <t>1,3659</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.0119 %</t>
+          <t>1,0119</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.7354 %</t>
+          <t>0,7354</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.0131 %</t>
+          <t>1,0131</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.7625 %</t>
+          <t>0,7625</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.6123 %</t>
+          <t>0,6123</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1.1801 %</t>
+          <t>1,1801</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.7796 %</t>
+          <t>0,7796</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.8021 %</t>
+          <t>0,8021</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.613 %</t>
+          <t>0,613</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.6394 %</t>
+          <t>0,6394</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.6249 %</t>
+          <t>0,6249</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.8506 %</t>
+          <t>0,8506</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1.1332 %</t>
+          <t>1,1332</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.7619 %</t>
+          <t>0,7619</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>1.0403 %</t>
+          <t>1,0403</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.8279 %</t>
+          <t>0,8279</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.7708 %</t>
+          <t>0,7708</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.6737 %</t>
+          <t>0,6737</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.7476 %</t>
+          <t>0,7476</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>1.0762 %</t>
+          <t>1,0762</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.752 %</t>
+          <t>0,752</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.7499 %</t>
+          <t>0,7499</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6761 %</t>
+          <t>0,6761</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.3499 %</t>
+          <t>1,3499</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4999 %</t>
+          <t>0,4999</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.761 %</t>
+          <t>0,761</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.606 %</t>
+          <t>0,606</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.9538 %</t>
+          <t>0,9538</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.746 %</t>
+          <t>0,746</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.7546 %</t>
+          <t>0,7546</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.8902 %</t>
+          <t>0,8902</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.8435 %</t>
+          <t>0,8435</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.9007 %</t>
+          <t>0,9007</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.5556 %</t>
+          <t>0,5556</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.8923 %</t>
+          <t>0,8923</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.9087 %</t>
+          <t>0,9087</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.9518 %</t>
+          <t>0,9518</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.8265 %</t>
+          <t>0,8265</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>1.3892 %</t>
+          <t>1,3892</t>
         </is>
       </c>
       <c r="CB2" t="inlineStr">
         <is>
-          <t>0.876 %</t>
+          <t>0,876</t>
         </is>
       </c>
     </row>
@@ -1073,232 +1073,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.6335 %</t>
+          <t>1,6335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.2675 %</t>
+          <t>2,2675</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5219 %</t>
+          <t>0,5219</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4683 %</t>
+          <t>0,4683</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.266 %</t>
+          <t>0,266</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2712 %</t>
+          <t>0,2712</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.453 %</t>
+          <t>0,453</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3823 %</t>
+          <t>0,3823</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7485 %</t>
+          <t>0,7485</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.4769 %</t>
+          <t>0,4769</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.296 %</t>
+          <t>0,296</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.766 %</t>
+          <t>0,766</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.6697 %</t>
+          <t>0,6697</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.8532 %</t>
+          <t>0,8532</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.8431 %</t>
+          <t>0,8431</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.1437 %</t>
+          <t>1,1437</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.206 %</t>
+          <t>1,206</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.969 %</t>
+          <t>0,969</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.9379 %</t>
+          <t>0,9379</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.3131 %</t>
+          <t>1,3131</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>5.4363 %</t>
+          <t>5,4363</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.0901 %</t>
+          <t>1,0901</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.2272 %</t>
+          <t>1,2272</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.527 %</t>
+          <t>1,527</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>5.7684 %</t>
+          <t>5,7684</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.8316 %</t>
+          <t>1,8316</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.1292 %</t>
+          <t>1,1292</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.1066 %</t>
+          <t>1,1066</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1.0893 %</t>
+          <t>1,0893</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1.1675 %</t>
+          <t>1,1675</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.0324 %</t>
+          <t>1,0324</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7097 %</t>
+          <t>0,7097</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1.2463 %</t>
+          <t>1,2463</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.8591 %</t>
+          <t>0,8591</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.8854 %</t>
+          <t>0,8854</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.7937 %</t>
+          <t>0,7937</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.9737 %</t>
+          <t>0,9737</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5601 %</t>
+          <t>0,5601</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.7711 %</t>
+          <t>0,7711</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.7317 %</t>
+          <t>0,7317</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.5507 %</t>
+          <t>0,5507</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.2804 %</t>
+          <t>0,2804</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4869 %</t>
+          <t>0,4869</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.6029 %</t>
+          <t>0,6029</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.4092 %</t>
+          <t>0,4092</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2.2201 %</t>
+          <t>2,2201</t>
         </is>
       </c>
     </row>
@@ -1310,187 +1310,187 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3955 %</t>
+          <t>2,3955</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.0177 %</t>
+          <t>2,0177</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.7335 %</t>
+          <t>2,7335</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.0383 %</t>
+          <t>4,0383</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.8067 %</t>
+          <t>5,8067</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.6871 %</t>
+          <t>6,6871</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.2261 %</t>
+          <t>0,2261</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2048 %</t>
+          <t>0,2048</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.3446 %</t>
+          <t>0,3446</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4428 %</t>
+          <t>0,4428</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.5161 %</t>
+          <t>0,5161</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.5098 %</t>
+          <t>0,5098</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.5253 %</t>
+          <t>0,5253</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.5294 %</t>
+          <t>0,5294</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.4019 %</t>
+          <t>0,4019</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.2996 %</t>
+          <t>0,2996</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.369 %</t>
+          <t>0,369</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.5581 %</t>
+          <t>0,5581</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.178 %</t>
+          <t>1,178</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2.8754 %</t>
+          <t>2,8754</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2.9108 %</t>
+          <t>2,9108</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1.2448 %</t>
+          <t>1,2448</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.3599 %</t>
+          <t>0,3599</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.3518 %</t>
+          <t>0,3518</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4985 %</t>
+          <t>0,4985</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.6271 %</t>
+          <t>0,6271</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.8868 %</t>
+          <t>0,8868</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.8959 %</t>
+          <t>0,8959</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.7109 %</t>
+          <t>0,7109</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.8247 %</t>
+          <t>0,8247</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.8181 %</t>
+          <t>0,8181</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.2338 %</t>
+          <t>1,2338</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2.394 %</t>
+          <t>2,394</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.0463 %</t>
+          <t>4,0463</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>5.5605 %</t>
+          <t>5,5605</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>9.9028 %</t>
+          <t>9,9028</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>7.6878 %</t>
+          <t>7,6878</t>
         </is>
       </c>
     </row>
